--- a/en/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14136CB-D254-4678-BA0C-2313A1F79293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PermissionCheckHandler" sheetId="4" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,6 +70,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -90,7 +94,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -122,11 +132,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+            <a:t>Multi-thread Execution Control Handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -148,7 +159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -180,28 +197,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>スレッド起動前の</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>コールバック処理の実行</a:t>
+            <a:t>Callback process before starting a thread</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -223,7 +223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -255,18 +261,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>スレッドの起動</a:t>
+            <a:t>Launching a thread</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -287,7 +288,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
           <a:endCxn id="11" idx="0"/>
@@ -337,7 +344,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -369,44 +382,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>(</a:t>
+            <a:t>(thread 1)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>スレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -427,7 +420,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="17" idx="1"/>
@@ -477,7 +476,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -509,34 +514,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>サブスレッドで</a:t>
+            <a:t>Executes subsequent handlers in the subthread</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>後続ハンドラの実行</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -557,7 +540,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="2"/>
           <a:endCxn id="15" idx="0"/>
@@ -607,7 +596,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -639,18 +634,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>スレッド終了</a:t>
+            <a:t>Thread end</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -671,7 +661,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -721,7 +717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -753,44 +755,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>(</a:t>
+            <a:t>(thread 2)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>スレッド２</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -811,7 +793,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -843,44 +831,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>(</a:t>
+            <a:t>(thread N)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>スレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>N)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -901,7 +869,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="20" idx="1"/>
@@ -951,7 +925,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="21" idx="1"/>
@@ -1001,7 +981,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート : 判断 31"/>
+        <xdr:cNvPr id="32" name="フローチャート : 判断 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1031,27 +1017,14 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>後続ハンドラでの</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>エラー有無</a:t>
+            <a:t>Whether an error occurred in the subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1073,7 +1046,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="2"/>
           <a:endCxn id="32" idx="0"/>
@@ -1123,7 +1102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1155,34 +1140,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>エラー発生時の</a:t>
+            <a:t>Executes callback processing when an error occurs</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>コールバック処理の実行</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1203,7 +1166,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="32" idx="2"/>
           <a:endCxn id="36" idx="0"/>
@@ -1253,7 +1222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1288,11 +1263,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>有</a:t>
+            <a:t>Yes</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1314,7 +1290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1349,11 +1331,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>無</a:t>
+            <a:t>No</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1375,7 +1358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="角丸四角形 41"/>
+        <xdr:cNvPr id="42" name="角丸四角形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1407,34 +1396,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>スレッド終了後の</a:t>
+            <a:t>Callback processing after the end of the thread</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>コールバック処理の実行</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1455,7 +1422,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="32" idx="3"/>
           <a:endCxn id="42" idx="3"/>
@@ -1507,7 +1480,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="2"/>
           <a:endCxn id="42" idx="0"/>
@@ -1562,7 +1541,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvPr id="25" name="角丸四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1594,18 +1579,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>親スレッド</a:t>
+            <a:t>Parent thread</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1626,7 +1606,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1658,11 +1644,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>データリーダ</a:t>
+            <a:t>Data reader</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1684,7 +1671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvPr id="37" name="角丸四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1716,23 +1709,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>サブスレッド</a:t>
+            <a:t>Subthread 1</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1753,7 +1736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvPr id="38" name="角丸四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1785,23 +1774,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>サブスレッド</a:t>
+            <a:t>Subthread 2</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1822,7 +1801,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvPr id="39" name="角丸四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1854,23 +1839,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>サブスレッド</a:t>
+            <a:t>Subthread 3</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1891,7 +1866,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="37" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1940,7 +1921,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="36" idx="1"/>
@@ -1990,7 +1977,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2037,7 +2030,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2084,7 +2083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2119,7 +2124,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>2</a:t>
           </a:r>
         </a:p>
@@ -2142,7 +2150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2177,10 +2191,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2201,7 +2217,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2236,10 +2258,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2260,7 +2284,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2307,7 +2337,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2354,7 +2390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2389,10 +2431,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2413,7 +2457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2448,10 +2498,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2472,7 +2524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2507,10 +2565,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2531,7 +2591,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2600,15 +2666,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>例外発生</a:t>
+            <a:t>Exception thrown</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2619,7 +2685,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2661,7 +2727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2694,9 +2760,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2729,6 +2812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2904,14 +3004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AG31" sqref="AG31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2921,14 +3021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
